--- a/tutorials/pandas_openpyxl.xlsx
+++ b/tutorials/pandas_openpyxl.xlsx
@@ -1,41 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\pyexcel\tutorials\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223FAF4A-9A82-4E04-A284-D3FDA3FF29B4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9888" windowHeight="5178" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="0"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -51,37 +54,46 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1">
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
-    <cellStyle hidden="0" name="Pandas" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pandas" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -369,26 +381,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="n"/>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="n"/>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>